--- a/data/income_statement/3digits/total/292_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/292_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>292-Manufacture of bodies (coachwork) for motor vehicles; manufacture of trailers and semi-trailers</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>292-Manufacture of bodies (coachwork) for motor vehicles; manufacture of trailers and semi-trailers</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1118865.8986</v>
@@ -968,28 +874,33 @@
         <v>4531991.211639999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4653880.89295</v>
+        <v>5194288.89155</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4841580.04764</v>
+        <v>4958744.78049</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>6081591.07954</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>8249270.974459999</v>
+        <v>8256910.40597</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>8975948.54318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>9015532.451450001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>11479833.005</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>872164.9889300001</v>
+        <v>872164.98893</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>1487672.34299</v>
@@ -1007,31 +918,36 @@
         <v>3490146.27693</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3630524.48675</v>
+        <v>4075948.25696</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3594472.41243</v>
+        <v>3709697.31939</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>4375008.123050001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5158919.24653</v>
+        <v>5163120.05983</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5543164.955099999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5575198.76906</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7733112.397</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>230101.75606</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>230083.4773300001</v>
+        <v>230083.47733</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>442444.2696800001</v>
@@ -1046,25 +962,30 @@
         <v>997910.1740899999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>969139.0947600001</v>
+        <v>1056084.85843</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1180022.98474</v>
+        <v>1181667.42299</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1616392.26907</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2936554.78016</v>
+        <v>2939983.32937</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3293365.86605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3300829.90139</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3557683.594</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>16599.15361</v>
@@ -1085,25 +1006,30 @@
         <v>43934.76062</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>54217.31144</v>
+        <v>62255.77615999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>67084.65046999999</v>
+        <v>67380.03810999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>90190.68741999999</v>
+        <v>90190.68742</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>153796.94777</v>
+        <v>153807.01677</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>139417.72203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>139503.781</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>189037.014</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>9993.64034</v>
@@ -1124,28 +1050,33 @@
         <v>136109.38958</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>141534.43041</v>
+        <v>149912.49569</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>126443.13404</v>
+        <v>129052.10439</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>137674.80693</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>273587.17385</v>
+        <v>273590.17385</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>265922.32378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>265961.74376</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>261325.327</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>6199.030309999999</v>
+        <v>6199.03031</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>7264.135609999999</v>
@@ -1163,73 +1094,83 @@
         <v>58238.0269</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>65159.45851999999</v>
+        <v>71936.03479999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>56893.95490999999</v>
+        <v>56910.80839</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>47726.75131</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>52744.78097</v>
+        <v>52744.78097000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>79152.39778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>79172.13581000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>84074.34600000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>3137.59366</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5245.81471</v>
+        <v>5245.814710000001</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>25805.51656</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>43803.30448000001</v>
+        <v>43803.30448</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>63629.0792</v>
+        <v>63629.07919999999</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>61944.91776</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>65414.3985</v>
+        <v>66902.81036</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>50449.84424</v>
+        <v>53034.18511999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>59877.76571</v>
+        <v>59877.76570999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>158535.41993</v>
+        <v>158538.41993</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>130676.63066</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>130678.74791</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>124424.345</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>657.0163700000001</v>
+        <v>657.0163700000002</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>1210.88812</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>7908.73309</v>
+        <v>7908.733090000001</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>3684.38751</v>
@@ -1241,10 +1182,10 @@
         <v>15926.44492</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>10960.57339</v>
+        <v>11073.65053</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>19099.33489</v>
+        <v>19107.11088</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>30070.28991</v>
@@ -1253,13 +1194,18 @@
         <v>62306.97295</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>56093.29534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>56110.86004</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>52826.636</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1108872.25826</v>
@@ -1274,34 +1220,39 @@
         <v>3124047.70333</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3534574.708940001</v>
+        <v>3534574.70894</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>4395881.822059999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4512346.46254</v>
+        <v>5044376.39586</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4715136.913600001</v>
+        <v>4829692.676100001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>5943916.272609999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7975683.80061</v>
+        <v>7983320.232119999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8710026.219400002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8749570.707689999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11218507.678</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>957301.2020899999</v>
+        <v>957301.20209</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>1521908.90398</v>
@@ -1319,25 +1270,30 @@
         <v>3858578.0826</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3891054.06403</v>
+        <v>4357586.47092</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4051396.06463</v>
+        <v>4165150.51905</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>5056963.04626</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6650938.03532</v>
+        <v>6656919.05061</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>7319149.54792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7350200.46442</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>9341828.784</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>751017.6300899999</v>
@@ -1358,25 +1314,30 @@
         <v>3103501.52429</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3117297.55102</v>
+        <v>3572893.08442</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3346287.76054</v>
+        <v>3457898.412479999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>4133237.80575</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>5671234.84265</v>
+        <v>5674891.74184</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>6026857.995219999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>6033610.53183</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7485217.646</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>177172.04316</v>
@@ -1388,7 +1349,7 @@
         <v>518592.3574099999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>520192.70752</v>
+        <v>520192.7075200001</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>610369.27063</v>
@@ -1397,25 +1358,30 @@
         <v>667272.97537</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>651039.7236800001</v>
+        <v>661976.59717</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>577195.2006799999</v>
+        <v>579339.00316</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>765350.751</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>806311.16339</v>
+        <v>807987.6650799999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1040753.93254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1062018.74128</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1565816.259</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>27624.3685</v>
@@ -1427,7 +1393,7 @@
         <v>52214.29379</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>56269.72105000001</v>
+        <v>56269.72105</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>51613.17002000001</v>
@@ -1445,16 +1411,21 @@
         <v>147752.29299</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>157415.5209</v>
+        <v>158063.13531</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>196017.41147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>198763.83266</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>256501.578</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1487.16034</v>
@@ -1472,7 +1443,7 @@
         <v>5417.27187</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>8144.283289999999</v>
+        <v>8144.28329</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>13313.02036</v>
@@ -1487,13 +1458,18 @@
         <v>15976.50838</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>55520.20869</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>55807.35865000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>34293.301</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>151571.05617</v>
@@ -1514,25 +1490,30 @@
         <v>537303.7394600001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>621292.39851</v>
+        <v>686789.9249400001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>663740.8489700001</v>
+        <v>664542.1570499999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>886953.2263500001</v>
+        <v>886953.22635</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1324745.76529</v>
+        <v>1326401.18151</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1390876.67148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1399370.24327</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1876678.894</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>109210.77037</v>
@@ -1547,31 +1528,36 @@
         <v>215969.66762</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>264799.0001</v>
+        <v>264799.59218</v>
       </c>
       <c r="H20" s="47" t="n">
         <v>300353.07241</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>338112.8136699999</v>
+        <v>370932.49192</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>384586.58866</v>
+        <v>388932.3938500001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>439073.80639</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>583766.4454300001</v>
+        <v>585187.55161</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>669179.0252900001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>673589.078</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>730895.676</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>4163.23127</v>
@@ -1592,7 +1578,7 @@
         <v>8041.66305</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>11587.9103</v>
+        <v>11623.50063</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>15628.87068</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>21467.16441</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>31280.296</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>29547.08691</v>
@@ -1622,7 +1613,7 @@
         <v>40119.90087</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>61946.23206999999</v>
+        <v>61946.23207</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>81781.57969</v>
@@ -1631,31 +1622,36 @@
         <v>92638.53574000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>109093.91115</v>
+        <v>116524.36676</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>105025.00541</v>
+        <v>105078.05333</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>128506.88206</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>191644.14329</v>
+        <v>191704.56386</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>206387.46196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>206942.77405</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>205005.062</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>75500.45219</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>95015.72559999999</v>
+        <v>95015.72560000001</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>112888.70524</v>
@@ -1664,34 +1660,39 @@
         <v>146850.47437</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>174814.51323</v>
+        <v>174815.10531</v>
       </c>
       <c r="H23" s="48" t="n">
         <v>199672.87362</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>217430.99222</v>
+        <v>242784.62453</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>263932.71257</v>
+        <v>268225.46984</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>296448.29754</v>
+        <v>296448.2975399999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>374109.45814</v>
+        <v>375470.14375</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>441324.3989199999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>445179.1395399999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>494610.318</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>42360.28580000001</v>
+        <v>42360.2858</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>71395.92456999999</v>
@@ -1703,37 +1704,42 @@
         <v>151815.79743</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>183267.47036</v>
+        <v>183266.87828</v>
       </c>
       <c r="H24" s="47" t="n">
         <v>236950.66705</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>283179.58484</v>
+        <v>315857.43302</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>279154.26031</v>
+        <v>275609.7632</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>447879.41996</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>740979.31986</v>
+        <v>741213.6299000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>721697.6461899999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>725781.16527</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1145783.218</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>91583.72900000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>81094.77857000002</v>
+        <v>81094.77856999999</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>126618.78919</v>
@@ -1748,25 +1754,30 @@
         <v>322804.01654</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>451522.0770399999</v>
+        <v>481274.73462</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>364030.20248</v>
+        <v>366941.70672</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>648957.8674199998</v>
+        <v>648957.8674199999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1734387.10809</v>
+        <v>1734198.3156</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>902277.24236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>902548.18525</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1297194.181</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>270</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>2.759</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>9502.637000000001</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>3271.0326</v>
@@ -1862,13 +1883,13 @@
         <v>6403.319</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>8053.712390000001</v>
+        <v>8053.71239</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>6385.539400000001</v>
+        <v>7207.0197</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6721.475380000001</v>
+        <v>6721.5963</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>10582.31902</v>
@@ -1877,13 +1898,18 @@
         <v>18655.80709</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>23319.86379</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>23378.33711</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>15821.486</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>186.82445</v>
@@ -1916,19 +1942,24 @@
         <v>853.0242900000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>413.13082</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>380.79019</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>2.044</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1000.51258</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>592.4001599999999</v>
+        <v>592.40016</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>1302.10473</v>
@@ -1946,7 +1977,7 @@
         <v>1821.33532</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5484.677710000001</v>
+        <v>5484.67771</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>1705.4107</v>
@@ -1955,13 +1986,18 @@
         <v>1443.71399</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>905.32373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>950.06873</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1495.049</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>20.17098</v>
@@ -1973,7 +2009,7 @@
         <v>47.24402000000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>30.03365</v>
+        <v>30.03364999999999</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>69.77411000000001</v>
@@ -1988,19 +2024,24 @@
         <v>120.84948</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>4934.579169999999</v>
+        <v>4934.57917</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>343.4976899999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>758.56283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>758.5628300000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1021.095</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>72581.30435999999</v>
@@ -2021,25 +2062,30 @@
         <v>285175.4634600001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>425898.75803</v>
+        <v>451455.27044</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>318519.53538</v>
+        <v>321372.59225</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>583623.87907</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1665698.2012</v>
+        <v>1665723.03358</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>830658.0707200001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>830700.1348099998</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1206678.047</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1881.94864</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>510.54337</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1203.139</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>2.53527</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>12639.40012</v>
@@ -2132,31 +2188,36 @@
         <v>9014.37499</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>7802.933930000001</v>
+        <v>7802.93393</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>19990.81833999999</v>
+        <v>19990.81834</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>16974.80759</v>
+        <v>20349.47246</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>30595.6855</v>
+        <v>30654.01195</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>38932.93364</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>46604.15606</v>
+        <v>46390.53118999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>45441.74710000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>45599.74821000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>61467.925</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>75945.77279</v>
@@ -2177,25 +2238,30 @@
         <v>309678.39257</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>456147.71802</v>
+        <v>530655.86028</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>352270.92396</v>
+        <v>356200.09676</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>614016.34064</v>
+        <v>614016.3406400001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1755781.13037</v>
+        <v>1756269.87624</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1000820.251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1000845.36055</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1315312.61</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>530.84622</v>
@@ -2213,7 +2279,7 @@
         <v>638.4154599999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>622.85653</v>
+        <v>622.8565299999999</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>1292.32559</v>
@@ -2228,13 +2294,18 @@
         <v>3039.22648</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5148.40179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5171.16767</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3974.96</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3517.33156</v>
@@ -2246,7 +2317,7 @@
         <v>7249.65745</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>5053.075529999999</v>
+        <v>5053.07553</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>3987.7174</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>10021.5601</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>29750.814</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.0001</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>13878.6539</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1.569</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>66616.03623</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>64064.49385</v>
+        <v>64064.49385000001</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>126349.7627</v>
@@ -2333,25 +2414,30 @@
         <v>301223.94223</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>429842.5074499999</v>
+        <v>504350.64971</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>341992.33748</v>
+        <v>345921.51028</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>602056.95085</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1736513.4536</v>
+        <v>1736997.4291</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>961537.3914200001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>961539.2071999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1276939.255</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>571.57752</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>6.736050000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>55.994</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>29.50323</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>4680.47793</v>
@@ -2447,28 +2543,33 @@
         <v>4004.86849</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4112.110299999999</v>
+        <v>4112.1103</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>6957.96872</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4625.48413</v>
+        <v>4625.484130000001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>3542.51108</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7922.052090000001</v>
+        <v>7926.82246</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>10227.50774</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>10228.03563</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4590.018</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>34737.41153</v>
@@ -2483,31 +2584,36 @@
         <v>65854.18781</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>106142.77112</v>
+        <v>106149.32064</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>108124.78855</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>140040.91918</v>
+        <v>154522.34186</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>158868.52946</v>
+        <v>160388.41642</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>214607.88636</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>338787.77622</v>
+        <v>339114.84119</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>310957.5698300001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>312029.522</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>424711.438</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>22927.19878</v>
@@ -2519,34 +2625,39 @@
         <v>44933.04364</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>41827.69349000001</v>
+        <v>41827.69349</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>97916.40470000001</v>
+        <v>97922.95422</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>75895.93962999999</v>
+        <v>75895.93963000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>102802.82934</v>
+        <v>116703.63339</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>111139.41507</v>
+        <v>112659.30203</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>157846.35828</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>255506.13112</v>
+        <v>255833.19609</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>188687.23739</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>189759.18956</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>161953.655</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>11810.21275</v>
@@ -2561,13 +2672,13 @@
         <v>24026.49432</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>8226.366419999998</v>
+        <v>8226.36642</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>32228.84892</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>37238.08983999999</v>
+        <v>37818.70847</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>47729.11439</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>122270.33244</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>262757.783</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>23260.83048</v>
@@ -2594,37 +2710,42 @@
         <v>51288.39475</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>96896.56423</v>
+        <v>96896.56422999999</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>110723.13126</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>51693.07474</v>
+        <v>51685.93314</v>
       </c>
       <c r="H47" s="47" t="n">
         <v>141951.50247</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>138513.02468</v>
+        <v>111953.9655</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>132045.00937</v>
+        <v>125962.95674</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>268213.06038</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>380797.52136</v>
+        <v>380027.22807</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>312197.0677200001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>315454.46797</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>702953.351</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>4926.87211</v>
@@ -2645,25 +2766,30 @@
         <v>105223.95409</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>27128.34046</v>
+        <v>35692.70675</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>50426.27863999999</v>
+        <v>50783.45305</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>71890.00926000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>96038.70781000001</v>
+        <v>96160.07869999998</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>85664.95009</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>86135.27030000002</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>66612.97500000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>52.34748</v>
@@ -2696,19 +2822,24 @@
         <v>205.73237</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>188.20334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>189.64861</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>202.46</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>4874.524630000001</v>
+        <v>4874.52463</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>6589.777800000001</v>
+        <v>6589.7778</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>10806.19286</v>
@@ -2720,34 +2851,39 @@
         <v>17130.90981</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>98131.19116</v>
+        <v>98131.19115999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>27031.22843</v>
+        <v>35595.59472</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>48933.02240000001</v>
+        <v>49290.19681</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>25183.65293</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>95832.97544000001</v>
+        <v>95954.34633000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>85476.74675000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>85945.62169</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>66410.515</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>7756.83785</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>7221.80433</v>
+        <v>7221.804330000001</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>89164.97678</v>
@@ -2762,25 +2898,30 @@
         <v>33971.60801999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>32241.60296</v>
+        <v>32464.74571</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>49973.90845999999</v>
+        <v>50315.82569</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>38676.37257</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>106075.68506</v>
+        <v>109226.21648</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>81445.41708</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>81623.31690999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>88313.46000000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>3219.43596</v>
@@ -2789,19 +2930,19 @@
         <v>1277.45697</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>627.25535</v>
+        <v>627.2553500000001</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>1340.81311</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>783.60807</v>
+        <v>783.6080700000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>798.9770100000002</v>
+        <v>798.9770100000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7866.36278</v>
+        <v>7866.362779999999</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>3558.22219</v>
@@ -2815,20 +2956,25 @@
       <c r="M52" s="48" t="n">
         <v>19908.03226</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>18535.33</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>404.0940900000001</v>
+        <v>404.09409</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>520.3226999999999</v>
+        <v>520.3227000000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>956.3806500000001</v>
+        <v>956.3806500000002</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>2567.45935</v>
@@ -2840,25 +2986,30 @@
         <v>1276.86795</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1267.8868</v>
+        <v>1297.36043</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>858.8477899999999</v>
+        <v>956.45772</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>1058.83172</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>808.28326</v>
+        <v>808.36172</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>7909.580140000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>7913.3939</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2040.455</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>4133.3078</v>
@@ -2879,31 +3030,36 @@
         <v>31895.76306</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>23107.35338</v>
+        <v>23301.0225</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>45556.83848000001</v>
+        <v>45801.14578</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>34922.23786</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>104747.83726</v>
+        <v>107898.29022</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>53627.80468</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>53801.89075</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>67737.675</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>20430.86474</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>50922.02048000001</v>
+        <v>50922.02048</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>18691.53341</v>
@@ -2912,31 +3068,36 @@
         <v>108686.65162</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>52072.4921</v>
+        <v>52065.3505</v>
       </c>
       <c r="H55" s="47" t="n">
         <v>213203.84854</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>133399.76218</v>
+        <v>115181.92654</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>132497.37955</v>
+        <v>126430.5841</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>301426.69707</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>370760.54411</v>
+        <v>366961.09029</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>316416.60073</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>319966.42136</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>681252.866</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>8544.05478</v>
@@ -2954,10 +3115,10 @@
         <v>22780.45812</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>38182.25105</v>
+        <v>38182.25105000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>39964.78326999999</v>
+        <v>42341.67465</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>33358.71097</v>
@@ -2966,16 +3127,21 @@
         <v>37282.3905</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>47869.05198</v>
+        <v>47987.63428</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>68467.4442</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>69213.80825</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>112696.524</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>11886.80996</v>
@@ -2990,28 +3156,31 @@
         <v>84704.03018999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>29292.03398</v>
+        <v>29284.89238</v>
       </c>
       <c r="H57" s="47" t="n">
         <v>175021.59749</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>93434.97890999999</v>
+        <v>72840.25189</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>99138.66858</v>
+        <v>93071.87313000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>264144.30657</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>322891.49213</v>
+        <v>318973.45601</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>247949.15653</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>250752.61311</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>568556.3419999999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>525</v>
@@ -3044,28 +3216,31 @@
         <v>603</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H59" s="35" t="n">
         <v>668</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>713</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>693</v>
+        <v>771</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>785</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>